--- a/import_template/guidelines/Import Allowance Guideline.xlsx
+++ b/import_template/guidelines/Import Allowance Guideline.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8440567-3406-422D-9FDF-0AF376456445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFA7CE-7385-44A1-B30E-D189999C4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="675" windowWidth="18075" windowHeight="6360" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
   <sheets>
-    <sheet name="Import Leave Guideline" sheetId="1" r:id="rId1"/>
+    <sheet name="Import Guidelines" sheetId="1" r:id="rId1"/>
     <sheet name="Sample CSV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Column</t>
   </si>
@@ -69,36 +69,15 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ALLOWANCE_ID</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>ALLOWANCE_TYPE</t>
-  </si>
-  <si>
     <t>PAYROLL_ID</t>
   </si>
   <si>
     <t>PAYROLL_DATE</t>
   </si>
   <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>Allowance amount.</t>
-  </si>
-  <si>
-    <t>Database ID of the allowance.</t>
-  </si>
-  <si>
-    <t>Type of the allowance.</t>
-  </si>
-  <si>
     <t>Payroll ID connected to payroll.</t>
   </si>
   <si>
@@ -106,6 +85,18 @@
   </si>
   <si>
     <t>04/20/2022</t>
+  </si>
+  <si>
+    <t>CONTRIBUTION_DEDUCTION_ID</t>
+  </si>
+  <si>
+    <t>GOVERNMENT_CONTRIBUTION_TYPE</t>
+  </si>
+  <si>
+    <t>Database ID of the contribution deduction for updating.</t>
+  </si>
+  <si>
+    <t>Type of the government contribution</t>
   </si>
 </sst>
 </file>
@@ -164,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,9 +165,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -493,19 +481,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D86087-82FB-46F5-B0C7-F4F9CF2E2675}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,7 +515,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -536,7 +524,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -561,7 +549,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -578,7 +566,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -587,15 +575,15 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -607,24 +595,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -635,58 +606,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="A1:F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/import_template/guidelines/Import Allowance Guideline.xlsx
+++ b/import_template/guidelines/Import Allowance Guideline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFA7CE-7385-44A1-B30E-D189999C4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEAC629-4CA3-49E8-A7A3-10D25B5B26EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Guidelines" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Column</t>
   </si>
@@ -87,16 +87,25 @@
     <t>04/20/2022</t>
   </si>
   <si>
-    <t>CONTRIBUTION_DEDUCTION_ID</t>
-  </si>
-  <si>
-    <t>GOVERNMENT_CONTRIBUTION_TYPE</t>
-  </si>
-  <si>
-    <t>Database ID of the contribution deduction for updating.</t>
-  </si>
-  <si>
-    <t>Type of the government contribution</t>
+    <t xml:space="preserve">ALLOWANCE_ID </t>
+  </si>
+  <si>
+    <t>ALLOWANCE_TYPE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>Database ID of the allowance for updating.</t>
+  </si>
+  <si>
+    <t>The amount of the allowance.</t>
+  </si>
+  <si>
+    <t>Type of the allowance.</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D86087-82FB-46F5-B0C7-F4F9CF2E2675}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,6 +605,23 @@
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +647,7 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -637,8 +663,11 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>7</v>
@@ -649,6 +678,9 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
